--- a/controllers/Feature_Extraction/feprocessed.xlsx
+++ b/controllers/Feature_Extraction/feprocessed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="281">
   <si>
     <t>Bigram</t>
   </si>
@@ -25,373 +25,838 @@
     <t>Unigram</t>
   </si>
   <si>
-    <t>['fire entertain']</t>
+    <t>['watch fire', 'fire dancers', 'dancers spel', 'spel du30', 'du30 entertain', 'entertain crowd', 'crowd thanksgiving', 'thanksgiving party', 'party live']</t>
+  </si>
+  <si>
+    <t>['watch fire dancers', 'fire dancers spel', 'dancers spel du30', 'spel du30 entertain', 'du30 entertain crowd', 'entertain crowd thanksgiving', 'crowd thanksgiving party', 'thanksgiving party live']</t>
+  </si>
+  <si>
+    <t>['watch', 'fire', 'dancers', 'spel', 'du30', 'entertain', 'crowd', 'thanksgiving', 'party', 'live']</t>
+  </si>
+  <si>
+    <t>['pres duterte', 'duterte via']</t>
+  </si>
+  <si>
+    <t>['pres duterte via']</t>
+  </si>
+  <si>
+    <t>['pres', 'duterte', 'via']</t>
+  </si>
+  <si>
+    <t>['main program', 'program duterte', 'duterte thanksgiving', 'thanksgiving party', 'party started', 'started prayer', 'prayer national', 'national anthem']</t>
+  </si>
+  <si>
+    <t>['main program duterte', 'program duterte thanksgiving', 'duterte thanksgiving party', 'thanksgiving party started', 'party started prayer', 'started prayer national', 'prayer national anthem']</t>
+  </si>
+  <si>
+    <t>['main', 'program', 'duterte', 'thanksgiving', 'party', 'started', 'prayer', 'national', 'anthem']</t>
+  </si>
+  <si>
+    <t>['president duterte', 'duterte pl', 'pl fed', 'fed kind', 'kind hypocrisy', 'hypocrisy wherever']</t>
+  </si>
+  <si>
+    <t>['president duterte pl', 'duterte pl fed', 'pl fed kind', 'fed kind hypocrisy', 'kind hypocrisy wherever']</t>
+  </si>
+  <si>
+    <t>['president', 'duterte', 'pl', 'fed', 'kind', 'hypocrisy', 'wherever']</t>
+  </si>
+  <si>
+    <t>['presidentelect duterte', 'duterte reckles', 'reckles spech', 'spech brave', 'brave reveal', 'reveal adversaries', 'adversaries untold', 'untold stories']</t>
+  </si>
+  <si>
+    <t>['presidentelect duterte reckles', 'duterte reckles spech', 'reckles spech brave', 'spech brave reveal', 'brave reveal adversaries', 'reveal adversaries untold', 'adversaries untold stories']</t>
+  </si>
+  <si>
+    <t>['presidentelect', 'duterte', 'reckles', 'spech', 'brave', 'reveal', 'adversaries', 'untold', 'stories']</t>
+  </si>
+  <si>
+    <t>['kapatwets think', 'think presidentelect', 'presidentelect duterte', 'duterte tactles', 'tactles plain', 'plain honest', 'honest join', 'join discusion', 'discusion using']</t>
+  </si>
+  <si>
+    <t>['kapatwets think presidentelect', 'think presidentelect duterte', 'presidentelect duterte tactles', 'duterte tactles plain', 'tactles plain honest', 'plain honest join', 'honest join discusion', 'join discusion using']</t>
+  </si>
+  <si>
+    <t>['kapatwets', 'think', 'presidentelect', 'duterte', 'tactles', 'plain', 'honest', 'join', 'discusion', 'using']</t>
+  </si>
+  <si>
+    <t>['source presidentelect', 'presidentelect duterte', 'duterte gave', 'gave order', 'order atam', 'atam media', 'media removed', 'removed designated', 'designated area']</t>
+  </si>
+  <si>
+    <t>['source presidentelect duterte', 'presidentelect duterte gave', 'duterte gave order', 'gave order atam', 'order atam media', 'atam media removed', 'media removed designated', 'removed designated area']</t>
+  </si>
+  <si>
+    <t>['source', 'presidentelect', 'duterte', 'gave', 'order', 'atam', 'media', 'removed', 'designated', 'area']</t>
+  </si>
+  <si>
+    <t>['tama naman', 'naman du30', 'du30 marami', 'marami nagagalit', 'nagagalit marami', 'marami tinataman']</t>
+  </si>
+  <si>
+    <t>['tama naman du30', 'naman du30 marami', 'du30 marami nagagalit', 'marami nagagalit marami', 'nagagalit marami tinataman']</t>
+  </si>
+  <si>
+    <t>['tama', 'naman', 'du30', 'marami', 'nagagalit', 'marami', 'tinataman']</t>
+  </si>
+  <si>
+    <t>['genuine teaching', 'teaching bro', 'bro eli', 'eli strong', 'strong governance', 'governance duterte', 'duterte great', 'great impact', 'impact country']</t>
+  </si>
+  <si>
+    <t>['genuine teaching bro', 'teaching bro eli', 'bro eli strong', 'eli strong governance', 'strong governance duterte', 'governance duterte great', 'duterte great impact', 'great impact country']</t>
+  </si>
+  <si>
+    <t>['genuine', 'teaching', 'bro', 'eli', 'strong', 'governance', 'duterte', 'great', 'impact', 'country']</t>
+  </si>
+  <si>
+    <t>['tama sinasabi', 'sinasabi ginagawa', 'ginagawa presduterte', 'presduterte corupt', 'corupt bawat', 'bawat institution', 'institution media']</t>
+  </si>
+  <si>
+    <t>['tama sinasabi ginagawa', 'sinasabi ginagawa presduterte', 'ginagawa presduterte corupt', 'presduterte corupt bawat', 'corupt bawat institution', 'bawat institution media']</t>
+  </si>
+  <si>
+    <t>['tama', 'sinasabi', 'ginagawa', 'presduterte', 'corupt', 'bawat', 'institution', 'media']</t>
+  </si>
+  <si>
+    <t>['president duterte', 'duterte praying', 'praying you', 'you giant', 'giant media', 'media entities', 'entities leave']</t>
+  </si>
+  <si>
+    <t>['president duterte praying', 'duterte praying you', 'praying you giant', 'you giant media', 'giant media entities', 'media entities leave']</t>
+  </si>
+  <si>
+    <t>['president', 'duterte', 'praying', 'you', 'giant', 'media', 'entities', 'leave']</t>
+  </si>
+  <si>
+    <t>['duterte style', 'style used', 'used don', 'don think', 'think can', 'can stop', 'stop talking', 'talking public']</t>
+  </si>
+  <si>
+    <t>['duterte style used', 'style used don', 'used don think', 'don think can', 'think can stop', 'can stop talking', 'stop talking public']</t>
+  </si>
+  <si>
+    <t>['duterte', 'style', 'used', 'don', 'think', 'can', 'stop', 'talking', 'public']</t>
+  </si>
+  <si>
+    <t>['mag prangkahan', 'prangkahan tayo', 'tayo beter', 'beter tel', 'tel truth', 'truth agre', 'agre truth', 'truth duterte']</t>
+  </si>
+  <si>
+    <t>['mag prangkahan tayo', 'prangkahan tayo beter', 'tayo beter tel', 'beter tel truth', 'tel truth agre', 'truth agre truth', 'agre truth duterte']</t>
+  </si>
+  <si>
+    <t>['mag', 'prangkahan', 'tayo', 'beter', 'tel', 'truth', 'agre', 'truth', 'duterte']</t>
+  </si>
+  <si>
+    <t>['watch thanksgiving', 'thanksgiving party', 'party presidentelect', 'presidentelect rodrigo', 'rodrigo duterte', 'duterte via', 'via livestream']</t>
+  </si>
+  <si>
+    <t>['watch thanksgiving party', 'thanksgiving party presidentelect', 'party presidentelect rodrigo', 'presidentelect rodrigo duterte', 'rodrigo duterte via', 'duterte via livestream']</t>
+  </si>
+  <si>
+    <t>['watch', 'thanksgiving', 'party', 'presidentelect', 'rodrigo', 'duterte', 'via', 'livestream']</t>
+  </si>
+  <si>
+    <t>['high time', 'time unveils', 'unveils hypocrite', 'hypocrite sectors', 'sectors let', 'let start', 'start religions', 'religions medias', 'medias pres', 'pres duterte']</t>
+  </si>
+  <si>
+    <t>['high time unveils', 'time unveils hypocrite', 'unveils hypocrite sectors', 'hypocrite sectors let', 'sectors let start', 'let start religions', 'start religions medias', 'religions medias pres', 'medias pres duterte']</t>
+  </si>
+  <si>
+    <t>['high', 'time', 'unveils', 'hypocrite', 'sectors', 'let', 'start', 'religions', 'medias', 'pres', 'duterte']</t>
+  </si>
+  <si>
+    <t>['lahat nalang', 'nalang pinagtritripan', 'pinagtritripan tsk', 'tsk sumbong', 'sumbong kita', 'kita duterte', 'duterte ahahahaha']</t>
+  </si>
+  <si>
+    <t>['lahat nalang pinagtritripan', 'nalang pinagtritripan tsk', 'pinagtritripan tsk sumbong', 'tsk sumbong kita', 'sumbong kita duterte', 'kita duterte ahahahaha']</t>
+  </si>
+  <si>
+    <t>['lahat', 'nalang', 'pinagtritripan', 'tsk', 'sumbong', 'kita', 'duterte', 'ahahahaha']</t>
+  </si>
+  <si>
+    <t>['came crocodile', 'crocodile park', 'park performed', 'performed gave', 'gave spech', 'spech president', 'president du30', 'du30 party']</t>
+  </si>
+  <si>
+    <t>['came crocodile park', 'crocodile park performed', 'park performed gave', 'performed gave spech', 'gave spech president', 'spech president du30', 'president du30 party']</t>
+  </si>
+  <si>
+    <t>['came', 'crocodile', 'park', 'performed', 'gave', 'spech', 'president', 'du30', 'party']</t>
+  </si>
+  <si>
+    <t>['know duterte', 'duterte personality', 'personality canot', 'canot changed', 'changed snap', 'snap because', 'because want', 'want hope', 'hope thinks', 'thinks thoroughly']</t>
+  </si>
+  <si>
+    <t>['know duterte personality', 'duterte personality canot', 'personality canot changed', 'canot changed snap', 'changed snap because', 'snap because want', 'because want hope', 'want hope thinks', 'hope thinks thoroughly']</t>
+  </si>
+  <si>
+    <t>['know', 'duterte', 'personality', 'canot', 'changed', 'snap', 'because', 'want', 'hope', 'thinks', 'thoroughly']</t>
+  </si>
+  <si>
+    <t>['pero wala', 'wala license', 'license kaya', 'kaya patay', 'patay du30']</t>
+  </si>
+  <si>
+    <t>['pero wala license', 'wala license kaya', 'license kaya patay', 'kaya patay du30']</t>
+  </si>
+  <si>
+    <t>['pero', 'wala', 'license', 'kaya', 'patay', 'du30']</t>
+  </si>
+  <si>
+    <t>['duterte bisaya', 'bisaya ned', 'ned know', 'know word', 'word respect', 'respect bhe']</t>
+  </si>
+  <si>
+    <t>['duterte bisaya ned', 'bisaya ned know', 'ned know word', 'know word respect', 'word respect bhe']</t>
+  </si>
+  <si>
+    <t>['duterte', 'bisaya', 'ned', 'know', 'word', 'respect', 'bhe']</t>
+  </si>
+  <si>
+    <t>['friend facebok', 'facebok shares', 'shares posts', 'posts claiming', 'claiming mariz', 'mariz fault', 'fault duterte', 'duterte unfriended', 'unfriended him', 'him know', 'know anyway']</t>
+  </si>
+  <si>
+    <t>['friend facebok shares', 'facebok shares posts', 'shares posts claiming', 'posts claiming mariz', 'claiming mariz fault', 'mariz fault duterte', 'fault duterte unfriended', 'duterte unfriended him', 'unfriended him know', 'him know anyway']</t>
+  </si>
+  <si>
+    <t>['friend', 'facebok', 'shares', 'posts', 'claiming', 'mariz', 'fault', 'duterte', 'unfriended', 'him', 'know', 'anyway']</t>
+  </si>
+  <si>
+    <t>['tsktsktsktsltskthats dutertards', 'dutertards because', 'because they', 'they retards']</t>
+  </si>
+  <si>
+    <t>['tsktsktsktsltskthats dutertards because', 'dutertards because they', 'because they retards']</t>
+  </si>
+  <si>
+    <t>['tsktsktsktsltskthats', 'dutertards', 'because', 'they', 'retards']</t>
+  </si>
+  <si>
+    <t>['duterte tries', 'tries discredit', 'discredit intimidate', 'intimidate pres']</t>
+  </si>
+  <si>
+    <t>['duterte tries discredit', 'tries discredit intimidate', 'discredit intimidate pres']</t>
+  </si>
+  <si>
+    <t>['duterte', 'tries', 'discredit', 'intimidate', 'pres']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['fire', 'entertain']</t>
-  </si>
-  <si>
-    <t>['kind']</t>
-  </si>
-  <si>
-    <t>['brave']</t>
-  </si>
-  <si>
-    <t>['honest']</t>
-  </si>
-  <si>
-    <t>['order']</t>
-  </si>
-  <si>
-    <t>['tama naman', 'naman marami', 'marami nagagalit', 'nagagalit marami']</t>
-  </si>
-  <si>
-    <t>['tama naman marami', 'naman marami nagagalit', 'marami nagagalit marami']</t>
-  </si>
-  <si>
-    <t>['tama', 'naman', 'marami', 'nagagalit', 'marami']</t>
-  </si>
-  <si>
-    <t>['genuine strong', 'strong great']</t>
-  </si>
-  <si>
-    <t>['genuine strong great']</t>
-  </si>
-  <si>
-    <t>['genuine', 'strong', 'great']</t>
-  </si>
-  <si>
-    <t>['tama sinasabi', 'sinasabi bawat']</t>
-  </si>
-  <si>
-    <t>['tama sinasabi bawat']</t>
-  </si>
-  <si>
-    <t>['tama', 'sinasabi', 'bawat']</t>
-  </si>
-  <si>
-    <t>['leave']</t>
-  </si>
-  <si>
-    <t>['don stop']</t>
-  </si>
-  <si>
-    <t>['don', 'stop']</t>
-  </si>
-  <si>
-    <t>['tayo']</t>
-  </si>
-  <si>
-    <t>['lahat sumbong', 'sumbong kita']</t>
-  </si>
-  <si>
-    <t>['lahat sumbong kita']</t>
-  </si>
-  <si>
-    <t>['lahat', 'sumbong', 'kita']</t>
-  </si>
-  <si>
-    <t>['hope']</t>
-  </si>
-  <si>
-    <t>['kaya patay']</t>
-  </si>
-  <si>
-    <t>['kaya', 'patay']</t>
-  </si>
-  <si>
-    <t>['respect']</t>
-  </si>
-  <si>
-    <t>['friend shares', 'shares fault']</t>
-  </si>
-  <si>
-    <t>['friend shares fault']</t>
-  </si>
-  <si>
-    <t>['friend', 'shares', 'fault']</t>
-  </si>
-  <si>
-    <t>['discredit intimidate']</t>
-  </si>
-  <si>
-    <t>['discredit', 'intimidate']</t>
-  </si>
-  <si>
-    <t>['warns']</t>
-  </si>
-  <si>
-    <t>['bumati ngayon', 'ngayon friendship', 'friendship partial']</t>
-  </si>
-  <si>
-    <t>['bumati ngayon friendship', 'ngayon friendship partial']</t>
-  </si>
-  <si>
-    <t>['bumati', 'ngayon', 'friendship', 'partial']</t>
-  </si>
-  <si>
-    <t>['shame']</t>
-  </si>
-  <si>
-    <t>['mura haters']</t>
-  </si>
-  <si>
-    <t>['mura', 'haters']</t>
-  </si>
-  <si>
-    <t>['bawal klase']</t>
-  </si>
-  <si>
-    <t>['bawal', 'klase']</t>
-  </si>
-  <si>
-    <t>['wrong doings', 'doings god']</t>
-  </si>
-  <si>
-    <t>['wrong doings god']</t>
-  </si>
-  <si>
-    <t>['wrong', 'doings', 'god']</t>
-  </si>
-  <si>
-    <t>['nalipay…']</t>
-  </si>
-  <si>
-    <t>['don god', 'god dedicated']</t>
-  </si>
-  <si>
-    <t>['don god dedicated']</t>
-  </si>
-  <si>
-    <t>['don', 'god', 'dedicated']</t>
-  </si>
-  <si>
-    <t>['sumbong']</t>
-  </si>
-  <si>
-    <t>['won']</t>
-  </si>
-  <si>
-    <t>['grabe mahal', 'mahal mahal', 'mahal kulang', 'kulang magtayo', 'magtayo bahay']</t>
-  </si>
-  <si>
-    <t>['grabe mahal mahal', 'mahal mahal kulang', 'mahal kulang magtayo', 'kulang magtayo bahay']</t>
-  </si>
-  <si>
-    <t>['grabe', 'mahal', 'mahal', 'kulang', 'magtayo', 'bahay']</t>
-  </si>
-  <si>
-    <t>['chance children”', 'children” –']</t>
-  </si>
-  <si>
-    <t>['chance children” –']</t>
-  </si>
-  <si>
-    <t>['chance', 'children”', '–']</t>
-  </si>
-  <si>
-    <t>['justice right', 'right respect']</t>
-  </si>
-  <si>
-    <t>['justice right respect']</t>
-  </si>
-  <si>
-    <t>['justice', 'right', 'respect']</t>
-  </si>
-  <si>
-    <t>['victory bash', 'bash exclusive', 'exclusive rave']</t>
-  </si>
-  <si>
-    <t>['victory bash exclusive', 'bash exclusive rave']</t>
-  </si>
-  <si>
-    <t>['victory', 'bash', 'exclusive', 'rave']</t>
-  </si>
-  <si>
-    <t>['kaya']</t>
-  </si>
-  <si>
-    <t>['vice importante', 'importante punta', 'punta bar', 'bar libre', 'libre kita']</t>
-  </si>
-  <si>
-    <t>['vice importante punta', 'importante punta bar', 'punta bar libre', 'bar libre kita']</t>
-  </si>
-  <si>
-    <t>['vice', 'importante', 'punta', 'bar', 'libre', 'kita']</t>
-  </si>
-  <si>
-    <t>['big destroying']</t>
-  </si>
-  <si>
-    <t>['big', 'destroying']</t>
-  </si>
-  <si>
-    <t>['itim']</t>
-  </si>
-  <si>
-    <t>['flak']</t>
-  </si>
-  <si>
-    <t>['mukhang']</t>
-  </si>
-  <si>
-    <t>['…']</t>
-  </si>
-  <si>
-    <t>['‘anak’ kaya', 'kaya favorite', 'favorite award']</t>
-  </si>
-  <si>
-    <t>['‘anak’ kaya favorite', 'kaya favorite award']</t>
-  </si>
-  <si>
-    <t>['‘anak’', 'kaya', 'favorite', 'award']</t>
-  </si>
-  <si>
-    <t>['critics cut']</t>
-  </si>
-  <si>
-    <t>['critics', 'cut']</t>
-  </si>
-  <si>
-    <t>['sad victory', 'victory haters', 'haters criticism', 'criticism wish', 'wish dead']</t>
-  </si>
-  <si>
-    <t>['sad victory haters', 'victory haters criticism', 'haters criticism wish', 'criticism wish dead']</t>
-  </si>
-  <si>
-    <t>['sad', 'victory', 'haters', 'criticism', 'wish', 'dead']</t>
-  </si>
-  <si>
-    <t>['fiasco like']</t>
-  </si>
-  <si>
-    <t>['fiasco', 'like']</t>
-  </si>
-  <si>
-    <t>['backs talaga']</t>
-  </si>
-  <si>
-    <t>['backs', 'talaga']</t>
-  </si>
-  <si>
-    <t>['destroy']</t>
-  </si>
-  <si>
-    <t>['baka critics', 'critics pang']</t>
-  </si>
-  <si>
-    <t>['baka critics pang']</t>
-  </si>
-  <si>
-    <t>['baka', 'critics', 'pang']</t>
-  </si>
-  <si>
-    <t>['kaya isa', 'isa rin']</t>
-  </si>
-  <si>
-    <t>['kaya isa rin']</t>
-  </si>
-  <si>
-    <t>['kaya', 'isa', 'rin']</t>
-  </si>
-  <si>
-    <t>['toto naman']</t>
-  </si>
-  <si>
-    <t>['toto', 'naman']</t>
-  </si>
-  <si>
-    <t>['dumalo naglalakad']</t>
-  </si>
-  <si>
-    <t>['dumalo', 'naglalakad']</t>
-  </si>
-  <si>
-    <t>['blow']</t>
-  </si>
-  <si>
-    <t>['ready exclusive']</t>
-  </si>
-  <si>
-    <t>['ready', 'exclusive']</t>
-  </si>
-  <si>
-    <t>['iwan']</t>
-  </si>
-  <si>
-    <t>['bayan victory']</t>
-  </si>
-  <si>
-    <t>['bayan', 'victory']</t>
-  </si>
-  <si>
-    <t>['tapos ilan']</t>
-  </si>
-  <si>
-    <t>['tapos', 'ilan']</t>
-  </si>
-  <si>
-    <t>['🤗']</t>
-  </si>
-  <si>
-    <t>['hate quality']</t>
-  </si>
-  <si>
-    <t>['hate', 'quality']</t>
-  </si>
-  <si>
-    <t>['dispute']</t>
-  </si>
-  <si>
-    <t>['hard hating', 'hating —']</t>
-  </si>
-  <si>
-    <t>['hard hating —']</t>
-  </si>
-  <si>
-    <t>['hard', 'hating', '—']</t>
-  </si>
-  <si>
-    <t>['‘anak’']</t>
-  </si>
-  <si>
-    <t>['silent gold']</t>
-  </si>
-  <si>
-    <t>['silent', 'gold']</t>
-  </si>
-  <si>
-    <t>['promised clear', 'clear promises']</t>
-  </si>
-  <si>
-    <t>['promised clear promises']</t>
-  </si>
-  <si>
-    <t>['promised', 'clear', 'promises']</t>
-  </si>
-  <si>
-    <t>['breaks crime', 'crime genius']</t>
-  </si>
-  <si>
-    <t>['breaks crime genius']</t>
-  </si>
-  <si>
-    <t>['breaks', 'crime', 'genius']</t>
-  </si>
-  <si>
-    <t>['kaya anak']</t>
-  </si>
-  <si>
-    <t>['kaya', 'anak']</t>
-  </si>
-  <si>
-    <t>['ideklara pahayag']</t>
-  </si>
-  <si>
-    <t>['ideklara', 'pahayag']</t>
+    <t>['reality']</t>
+  </si>
+  <si>
+    <t>['duterte warns', 'warns cops', 'cops involved', 'involved drug', 'drug trade', 'trade kil', 'kil rapler']</t>
+  </si>
+  <si>
+    <t>['duterte warns cops', 'warns cops involved', 'cops involved drug', 'involved drug trade', 'drug trade kil', 'trade kil rapler']</t>
+  </si>
+  <si>
+    <t>['duterte', 'warns', 'cops', 'involved', 'drug', 'trade', 'kil', 'rapler']</t>
+  </si>
+  <si>
+    <t>['watch here', 'here ful', 'ful spech', 'spech sebastian', 'sebastian duterte', 'duterte thanksgiving', 'thanksgiving party', 'party davao']</t>
+  </si>
+  <si>
+    <t>['watch here ful', 'here ful spech', 'ful spech sebastian', 'spech sebastian duterte', 'sebastian duterte thanksgiving', 'duterte thanksgiving party', 'thanksgiving party davao']</t>
+  </si>
+  <si>
+    <t>['watch', 'here', 'ful', 'spech', 'sebastian', 'duterte', 'thanksgiving', 'party', 'davao']</t>
+  </si>
+  <si>
+    <t>['bumati duterte', 'duterte obama', 'obama bongbong', 'bongbong leni', 'leni nagbati', 'nagbati hangang', 'hangang ngayon', 'ngayon friendship', 'friendship partial', 'partial unoficial']</t>
+  </si>
+  <si>
+    <t>['bumati duterte obama', 'duterte obama bongbong', 'obama bongbong leni', 'bongbong leni nagbati', 'leni nagbati hangang', 'nagbati hangang ngayon', 'hangang ngayon friendship', 'ngayon friendship partial', 'friendship partial unoficial']</t>
+  </si>
+  <si>
+    <t>['bumati', 'duterte', 'obama', 'bongbong', 'leni', 'nagbati', 'hangang', 'ngayon', 'friendship', 'partial', 'unoficial']</t>
+  </si>
+  <si>
+    <t>['watch baste', 'baste duterte', 'duterte spech', 'spech du31', 'du31 party']</t>
+  </si>
+  <si>
+    <t>['watch baste duterte', 'baste duterte spech', 'duterte spech du31', 'spech du31 party']</t>
+  </si>
+  <si>
+    <t>['watch', 'baste', 'duterte', 'spech', 'du31', 'party']</t>
+  </si>
+  <si>
+    <t>['realy know', 'know milion', 'milion people', 'people vote', 'vote kind', 'kind guy']</t>
+  </si>
+  <si>
+    <t>['realy know milion', 'know milion people', 'milion people vote', 'people vote kind', 'vote kind guy']</t>
+  </si>
+  <si>
+    <t>['realy', 'know', 'milion', 'people', 'vote', 'kind', 'guy']</t>
+  </si>
+  <si>
+    <t>['sabi duterte', 'duterte change', 'change coming', 'coming emoji', 'emoji change']</t>
+  </si>
+  <si>
+    <t>['sabi duterte change', 'duterte change coming', 'change coming emoji', 'coming emoji change']</t>
+  </si>
+  <si>
+    <t>['sabi', 'duterte', 'change', 'coming', 'emoji', 'change']</t>
+  </si>
+  <si>
+    <t>['duterte way', 'way speaking', 'speaking bisaya', 'bisaya thing', 'thing shame', 'shame saying', 'saying kthxbye']</t>
+  </si>
+  <si>
+    <t>['duterte way speaking', 'way speaking bisaya', 'speaking bisaya thing', 'bisaya thing shame', 'thing shame saying', 'shame saying kthxbye']</t>
+  </si>
+  <si>
+    <t>['duterte', 'way', 'speaking', 'bisaya', 'thing', 'shame', 'saying', 'kthxbye']</t>
+  </si>
+  <si>
+    <t>['duterte mura', 'mura cavs', 'cavs daghan', 'daghan kayg', 'kayg haters']</t>
+  </si>
+  <si>
+    <t>['duterte mura cavs', 'mura cavs daghan', 'cavs daghan kayg', 'daghan kayg haters']</t>
+  </si>
+  <si>
+    <t>['duterte', 'mura', 'cavs', 'daghan', 'kayg', 'haters']</t>
+  </si>
+  <si>
+    <t>['video libulibo', 'libulibo inasahang', 'inasahang dadalo', 'dadalo thanksgiving', 'thanksgiving party', 'party duterte']</t>
+  </si>
+  <si>
+    <t>['video libulibo inasahang', 'libulibo inasahang dadalo', 'inasahang dadalo thanksgiving', 'dadalo thanksgiving party', 'thanksgiving party duterte']</t>
+  </si>
+  <si>
+    <t>['video', 'libulibo', 'inasahang', 'dadalo', 'thanksgiving', 'party', 'duterte']</t>
+  </si>
+  <si>
+    <t>['bakit daming', 'daming gwapongwapo', 'gwapongwapo baste', 'baste duterte']</t>
+  </si>
+  <si>
+    <t>['bakit daming gwapongwapo', 'daming gwapongwapo baste', 'gwapongwapo baste duterte']</t>
+  </si>
+  <si>
+    <t>['bakit', 'daming', 'gwapongwapo', 'baste', 'duterte']</t>
+  </si>
+  <si>
+    <t>['youth president', 'president miriam', 'miriam defensorsantiago', 'defensorsantiago icu', 'icu let', 'let continue', 'continue praying', 'praying her', 'her fratres', 'fratres sorores']</t>
+  </si>
+  <si>
+    <t>['youth president miriam', 'president miriam defensorsantiago', 'miriam defensorsantiago icu', 'defensorsantiago icu let', 'icu let continue', 'let continue praying', 'continue praying her', 'praying her fratres', 'her fratres sorores']</t>
+  </si>
+  <si>
+    <t>['youth', 'president', 'miriam', 'defensorsantiago', 'icu', 'let', 'continue', 'praying', 'her', 'fratres', 'sorores']</t>
+  </si>
+  <si>
+    <t>['wants discipline', 'discipline people', 'people canot', 'canot discipline', 'discipline own', 'own mouthlets', 'mouthlets wait', 'wait yrs']</t>
+  </si>
+  <si>
+    <t>['wants discipline people', 'discipline people canot', 'people canot discipline', 'canot discipline own', 'discipline own mouthlets', 'own mouthlets wait', 'mouthlets wait yrs']</t>
+  </si>
+  <si>
+    <t>['wants', 'discipline', 'people', 'canot', 'discipline', 'own', 'mouthlets', 'wait', 'yrs']</t>
+  </si>
+  <si>
+    <t>['bawal unta', 'unta duterte', 'duterte ang', 'ang klase', 'klase mas', 'mas makadaot', 'makadaot kaysa', 'kaysa drugs']</t>
+  </si>
+  <si>
+    <t>['bawal unta duterte', 'unta duterte ang', 'duterte ang klase', 'ang klase mas', 'klase mas makadaot', 'mas makadaot kaysa', 'makadaot kaysa drugs']</t>
+  </si>
+  <si>
+    <t>['bawal', 'unta', 'duterte', 'ang', 'klase', 'mas', 'makadaot', 'kaysa', 'drugs']</t>
+  </si>
+  <si>
+    <t>['wana slap', 'slap duterte', 'duterte suporters', 'suporters kept', 'kept defending', 'defending wrong', 'wrong doings', 'doings seriously', 'seriously aint', 'aint god', 'god stupidbobotanga']</t>
+  </si>
+  <si>
+    <t>['wana slap duterte', 'slap duterte suporters', 'duterte suporters kept', 'suporters kept defending', 'kept defending wrong', 'defending wrong doings', 'wrong doings seriously', 'doings seriously aint', 'seriously aint god', 'aint god stupidbobotanga']</t>
+  </si>
+  <si>
+    <t>['wana', 'slap', 'duterte', 'suporters', 'kept', 'defending', 'wrong', 'doings', 'seriously', 'aint', 'god', 'stupidbobotanga']</t>
+  </si>
+  <si>
+    <t>['president rodrigo', 'rodrigo duterte', 'duterte speaking', 'speaking thanksgiving', 'thanksgiving party', 'party davao', 'davao nalipay…']</t>
+  </si>
+  <si>
+    <t>['president rodrigo duterte', 'rodrigo duterte speaking', 'duterte speaking thanksgiving', 'speaking thanksgiving party', 'thanksgiving party davao', 'party davao nalipay…']</t>
+  </si>
+  <si>
+    <t>['president', 'rodrigo', 'duterte', 'speaking', 'thanksgiving', 'party', 'davao', 'nalipay…']</t>
+  </si>
+  <si>
+    <t>['don understand', 'understand what', 'what deal', 'deal mediathey', 'mediathey pis', 'pis presduterte', 'presduterte god', 'god dedicated', 'dedicated leader']</t>
+  </si>
+  <si>
+    <t>['don understand what', 'understand what deal', 'what deal mediathey', 'deal mediathey pis', 'mediathey pis presduterte', 'pis presduterte god', 'presduterte god dedicated', 'god dedicated leader']</t>
+  </si>
+  <si>
+    <t>['don', 'understand', 'what', 'deal', 'mediathey', 'pis', 'presduterte', 'god', 'dedicated', 'leader']</t>
+  </si>
+  <si>
+    <t>['sino sumbong', 'sumbong naten', 'naten du30']</t>
+  </si>
+  <si>
+    <t>['sino sumbong naten', 'sumbong naten du30']</t>
+  </si>
+  <si>
+    <t>['sino', 'sumbong', 'naten', 'du30']</t>
+  </si>
+  <si>
+    <t>['timely relevant', 'relevant proj']</t>
+  </si>
+  <si>
+    <t>['timely relevant proj']</t>
+  </si>
+  <si>
+    <t>['timely', 'relevant', 'proj']</t>
+  </si>
+  <si>
+    <t>['surprised yelowred', 'yelowred shirt', 'shirt movement', 'movement emerges', 'emerges wait', 'wait duterte', 'duterte won', 'won sits', 'sits ofice']</t>
+  </si>
+  <si>
+    <t>['surprised yelowred shirt', 'yelowred shirt movement', 'shirt movement emerges', 'movement emerges wait', 'emerges wait duterte', 'wait duterte won', 'duterte won sits', 'won sits ofice']</t>
+  </si>
+  <si>
+    <t>['surprised', 'yelowred', 'shirt', 'movement', 'emerges', 'wait', 'duterte', 'won', 'sits', 'ofice']</t>
+  </si>
+  <si>
+    <t>['grabe mahal', 'mahal mahal', 'mahal pamilya', 'pamilya duterte', 'duterte kulang', 'kulang nalang', 'nalang magtayo', 'magtayo altar', 'altar bahay']</t>
+  </si>
+  <si>
+    <t>['grabe mahal mahal', 'mahal mahal pamilya', 'mahal pamilya duterte', 'pamilya duterte kulang', 'duterte kulang nalang', 'kulang nalang magtayo', 'nalang magtayo altar', 'magtayo altar bahay']</t>
+  </si>
+  <si>
+    <t>['grabe', 'mahal', 'mahal', 'pamilya', 'duterte', 'kulang', 'nalang', 'magtayo', 'altar', 'bahay']</t>
+  </si>
+  <si>
+    <t>['chance change', 'change country', 'country let', 'let build', 'build beter', 'beter children”', 'children” –', '– baste', 'baste duterte']</t>
+  </si>
+  <si>
+    <t>['chance change country', 'change country let', 'country let build', 'let build beter', 'build beter children”', 'beter children” –', 'children” – baste', '– baste duterte']</t>
+  </si>
+  <si>
+    <t>['chance', 'change', 'country', 'let', 'build', 'beter', 'children”', '–', 'baste', 'duterte']</t>
+  </si>
+  <si>
+    <t>['duterte ned', 'ned president', 'president serve', 'serve justice', 'justice right', 'right ned', 'ned president', 'president teach', 'teach boys', 'boys respect', 'respect women']</t>
+  </si>
+  <si>
+    <t>['duterte ned president', 'ned president serve', 'president serve justice', 'serve justice right', 'justice right ned', 'right ned president', 'ned president teach', 'president teach boys', 'teach boys respect', 'boys respect women']</t>
+  </si>
+  <si>
+    <t>['duterte', 'ned', 'president', 'serve', 'justice', 'right', 'ned', 'president', 'teach', 'boys', 'respect', 'women']</t>
+  </si>
+  <si>
+    <t>['mukang gustong', 'gustong humabol', 'humabol mis', 'mis enginering', 'enginering metamorphosis', 'metamorphosis duterte', 'duterte watch', 'watch emerge', 'emerge cocon']</t>
+  </si>
+  <si>
+    <t>['mukang gustong humabol', 'gustong humabol mis', 'humabol mis enginering', 'mis enginering metamorphosis', 'enginering metamorphosis duterte', 'metamorphosis duterte watch', 'duterte watch emerge', 'watch emerge cocon']</t>
+  </si>
+  <si>
+    <t>['mukang', 'gustong', 'humabol', 'mis', 'enginering', 'metamorphosis', 'duterte', 'watch', 'emerge', 'cocon']</t>
+  </si>
+  <si>
+    <t>['media baned', 'baned duterte', 'duterte victory', 'victory bash', 'bash ptv', 'ptv exclusive', 'exclusive rights', 'rights t12hour', 't12hour rave', 'rave party', 'party davao', 'davao crocodile', 'crocodile park']</t>
+  </si>
+  <si>
+    <t>['media baned duterte', 'baned duterte victory', 'duterte victory bash', 'victory bash ptv', 'bash ptv exclusive', 'ptv exclusive rights', 'exclusive rights t12hour', 'rights t12hour rave', 't12hour rave party', 'rave party davao', 'party davao crocodile', 'davao crocodile park']</t>
+  </si>
+  <si>
+    <t>['media', 'baned', 'duterte', 'victory', 'bash', 'ptv', 'exclusive', 'rights', 't12hour', 'rave', 'party', 'davao', 'crocodile', 'park']</t>
+  </si>
+  <si>
+    <t>['chalenge leni', 'leni robredo', 'robredo suporters', 'suporters nanghahamon', 'nanghahamon cxa', 'cxa kaya', 'kaya yan', 'yan link']</t>
+  </si>
+  <si>
+    <t>['chalenge leni robredo', 'leni robredo suporters', 'robredo suporters nanghahamon', 'suporters nanghahamon cxa', 'nanghahamon cxa kaya', 'cxa kaya yan', 'kaya yan link']</t>
+  </si>
+  <si>
+    <t>['chalenge', 'leni', 'robredo', 'suporters', 'nanghahamon', 'cxa', 'kaya', 'yan', 'link']</t>
+  </si>
+  <si>
+    <t>['vice importante', 'importante jan', 'jan punta', 'punta kanalang', 'kanalang bar', 'bar libre', 'libre kita', 'kita duterte', 'duterte shot']</t>
+  </si>
+  <si>
+    <t>['vice importante jan', 'importante jan punta', 'jan punta kanalang', 'punta kanalang bar', 'kanalang bar libre', 'bar libre kita', 'libre kita duterte', 'kita duterte shot']</t>
+  </si>
+  <si>
+    <t>['vice', 'importante', 'jan', 'punta', 'kanalang', 'bar', 'libre', 'kita', 'duterte', 'shot']</t>
+  </si>
+  <si>
+    <t>['duterte acuses', 'acuses big', 'big mining', 'mining firms', 'firms destroying', 'destroying environment', 'environment gma', 'gma news']</t>
+  </si>
+  <si>
+    <t>['duterte acuses big', 'acuses big mining', 'big mining firms', 'mining firms destroying', 'firms destroying environment', 'destroying environment gma', 'environment gma news']</t>
+  </si>
+  <si>
+    <t>['duterte', 'acuses', 'big', 'mining', 'firms', 'destroying', 'environment', 'gma', 'news']</t>
+  </si>
+  <si>
+    <t>['watch ful', 'ful spech', 'spech presidentelect', 'presidentelect rodrigo', 'rodrigo duterte', 'duterte thanksgiving', 'thanksgiving party']</t>
+  </si>
+  <si>
+    <t>['watch ful spech', 'ful spech presidentelect', 'spech presidentelect rodrigo', 'presidentelect rodrigo duterte', 'rodrigo duterte thanksgiving', 'duterte thanksgiving party']</t>
+  </si>
+  <si>
+    <t>['watch', 'ful', 'spech', 'presidentelect', 'rodrigo', 'duterte', 'thanksgiving', 'party']</t>
+  </si>
+  <si>
+    <t>['itim binay', 'binay lol']</t>
+  </si>
+  <si>
+    <t>['itim binay lol']</t>
+  </si>
+  <si>
+    <t>['itim', 'binay', 'lol']</t>
+  </si>
+  <si>
+    <t>['duterte draws', 'draws flak', 'flak wolf', 'wolf whistle', 'whistle via']</t>
+  </si>
+  <si>
+    <t>['duterte draws flak', 'draws flak wolf', 'flak wolf whistle', 'wolf whistle via']</t>
+  </si>
+  <si>
+    <t>['duterte', 'draws', 'flak', 'wolf', 'whistle', 'via']</t>
+  </si>
+  <si>
+    <t>['earlier actres', 'actres sarah', 'sarah lahbati', 'lahbati performs', 'performs thanksgiving', 'thanksgiving party', 'party ereses', 'ereses suport', 'suport preselect', 'preselect rody', 'rody duterte']</t>
+  </si>
+  <si>
+    <t>['earlier actres sarah', 'actres sarah lahbati', 'sarah lahbati performs', 'lahbati performs thanksgiving', 'performs thanksgiving party', 'thanksgiving party ereses', 'party ereses suport', 'ereses suport preselect', 'suport preselect rody', 'preselect rody duterte']</t>
+  </si>
+  <si>
+    <t>['earlier', 'actres', 'sarah', 'lahbati', 'performs', 'thanksgiving', 'party', 'ereses', 'suport', 'preselect', 'rody', 'duterte']</t>
+  </si>
+  <si>
+    <t>['mukhang maciado', 'maciado tayong', 'tayong nagiging', 'nagiging obsesed', 'obsesed duterte', 'duterte laging', 'laging pinagusapan', 'pinagusapan the']</t>
+  </si>
+  <si>
+    <t>['mukhang maciado tayong', 'maciado tayong nagiging', 'tayong nagiging obsesed', 'nagiging obsesed duterte', 'obsesed duterte laging', 'duterte laging pinagusapan', 'laging pinagusapan the']</t>
+  </si>
+  <si>
+    <t>['mukhang', 'maciado', 'tayong', 'nagiging', 'obsesed', 'duterte', 'laging', 'pinagusapan', 'the']</t>
+  </si>
+  <si>
+    <t>['mayor president', 'president …']</t>
+  </si>
+  <si>
+    <t>['mayor president …']</t>
+  </si>
+  <si>
+    <t>['mayor', 'president', '…']</t>
+  </si>
+  <si>
+    <t>['duterte napatino', 'napatino ‘anak’', '‘anak’ fredie', 'fredie kaya', 'kaya favorite', 'favorite incoming', 'incoming president', 'president rodrigo', 'rodrigo duterte', 'duterte award']</t>
+  </si>
+  <si>
+    <t>['duterte napatino ‘anak’', 'napatino ‘anak’ fredie', '‘anak’ fredie kaya', 'fredie kaya favorite', 'kaya favorite incoming', 'favorite incoming president', 'incoming president rodrigo', 'president rodrigo duterte', 'rodrigo duterte award']</t>
+  </si>
+  <si>
+    <t>['duterte', 'napatino', '‘anak’', 'fredie', 'kaya', 'favorite', 'incoming', 'president', 'rodrigo', 'duterte', 'award']</t>
+  </si>
+  <si>
+    <t>['justifying duterte', 'duterte act', 'act srsly', 'srsly critics', 'critics cut', 'cut slack', 'slack travel', 'travel guys', 'guys focus', 'focus energy', 'energy imp', 'imp things']</t>
+  </si>
+  <si>
+    <t>['justifying duterte act', 'duterte act srsly', 'act srsly critics', 'srsly critics cut', 'critics cut slack', 'cut slack travel', 'slack travel guys', 'travel guys focus', 'guys focus energy', 'focus energy imp', 'energy imp things']</t>
+  </si>
+  <si>
+    <t>['justifying', 'duterte', 'act', 'srsly', 'critics', 'cut', 'slack', 'travel', 'guys', 'focus', 'energy', 'imp', 'things']</t>
+  </si>
+  <si>
+    <t>['sad victory', 'victory pres', 'pres elect', 'elect duterte', 'duterte made', 'made lot', 'lot people', 'people haters', 'haters one', 'one criticism', 'criticism against', 'against people', 'people wish', 'wish dead']</t>
+  </si>
+  <si>
+    <t>['sad victory pres', 'victory pres elect', 'pres elect duterte', 'elect duterte made', 'duterte made lot', 'made lot people', 'lot people haters', 'people haters one', 'haters one criticism', 'one criticism against', 'criticism against people', 'against people wish', 'people wish dead']</t>
+  </si>
+  <si>
+    <t>['sad', 'victory', 'pres', 'elect', 'duterte', 'made', 'lot', 'people', 'haters', 'one', 'criticism', 'against', 'people', 'wish', 'dead']</t>
+  </si>
+  <si>
+    <t>['spend energy', 'energy duterte', 'duterte fiasco', 'fiasco people', 'people know', 'know like', 'like spent', 'spent godays', 'godays beach']</t>
+  </si>
+  <si>
+    <t>['spend energy duterte', 'energy duterte fiasco', 'duterte fiasco people', 'fiasco people know', 'people know like', 'know like spent', 'like spent godays', 'spent godays beach']</t>
+  </si>
+  <si>
+    <t>['spend', 'energy', 'duterte', 'fiasco', 'people', 'know', 'like', 'spent', 'godays', 'beach']</t>
+  </si>
+  <si>
+    <t>['wtf fvckery', 'fvckery gabriela', 'gabriela rep', 'rep backs', 'backs duterte', 'duterte ganun', 'ganun talaga', 'talaga bisaya', 'bisaya via']</t>
+  </si>
+  <si>
+    <t>['wtf fvckery gabriela', 'fvckery gabriela rep', 'gabriela rep backs', 'rep backs duterte', 'backs duterte ganun', 'duterte ganun talaga', 'ganun talaga bisaya', 'talaga bisaya via']</t>
+  </si>
+  <si>
+    <t>['wtf', 'fvckery', 'gabriela', 'rep', 'backs', 'duterte', 'ganun', 'talaga', 'bisaya', 'via']</t>
+  </si>
+  <si>
+    <t>['duterte destroy', 'destroy youth', 'youth country', 'country kil', 'kil you', 'you crowd', 'crowd includes', 'includes kids', 'kids repeatedly', 'repeatedly says', 'says putang', 'putang ina']</t>
+  </si>
+  <si>
+    <t>['duterte destroy youth', 'destroy youth country', 'youth country kil', 'country kil you', 'kil you crowd', 'you crowd includes', 'crowd includes kids', 'includes kids repeatedly', 'kids repeatedly says', 'repeatedly says putang', 'says putang ina']</t>
+  </si>
+  <si>
+    <t>['duterte', 'destroy', 'youth', 'country', 'kil', 'you', 'crowd', 'includes', 'kids', 'repeatedly', 'says', 'putang', 'ina']</t>
+  </si>
+  <si>
+    <t>['baka duterte', 'duterte critics', 'critics squater', 'squater bobos', 'bobos walang', 'walang perang', 'perang pang', 'pang travel', 'travel rely', 'rely heavily', 'heavily internet', 'internet chars']</t>
+  </si>
+  <si>
+    <t>['baka duterte critics', 'duterte critics squater', 'critics squater bobos', 'squater bobos walang', 'bobos walang perang', 'walang perang pang', 'perang pang travel', 'pang travel rely', 'travel rely heavily', 'rely heavily internet', 'heavily internet chars']</t>
+  </si>
+  <si>
+    <t>['baka', 'duterte', 'critics', 'squater', 'bobos', 'walang', 'perang', 'pang', 'travel', 'rely', 'heavily', 'internet', 'chars']</t>
+  </si>
+  <si>
+    <t>['du30 du30', 'du30 du30']</t>
+  </si>
+  <si>
+    <t>['du30 du30 du30']</t>
+  </si>
+  <si>
+    <t>['du30', 'du30', 'du30']</t>
+  </si>
+  <si>
+    <t>['kaya president', 'president duterte', 'duterte dahilsya', 'dahilsya isa', 'isa rin', 'rin aries']</t>
+  </si>
+  <si>
+    <t>['kaya president duterte', 'president duterte dahilsya', 'duterte dahilsya isa', 'dahilsya isa rin', 'isa rin aries']</t>
+  </si>
+  <si>
+    <t>['kaya', 'president', 'duterte', 'dahilsya', 'isa', 'rin', 'aries']</t>
+  </si>
+  <si>
+    <t>['odi somplang', 'somplang ksi', 'ksi toto', 'toto naman', 'naman sinasabe', 'sinasabe duterte']</t>
+  </si>
+  <si>
+    <t>['odi somplang ksi', 'somplang ksi toto', 'ksi toto naman', 'toto naman sinasabe', 'naman sinasabe duterte']</t>
+  </si>
+  <si>
+    <t>['odi', 'somplang', 'ksi', 'toto', 'naman', 'sinasabe', 'duterte']</t>
+  </si>
+  <si>
+    <t>['se light', 'light these', 'these initiatives', 'initiatives duterte', 'duterte launching', 'launching discipline', 'discipline built', 'built to']</t>
+  </si>
+  <si>
+    <t>['se light these', 'light these initiatives', 'these initiatives duterte', 'initiatives duterte launching', 'duterte launching discipline', 'launching discipline built', 'discipline built to']</t>
+  </si>
+  <si>
+    <t>['se', 'light', 'these', 'initiatives', 'duterte', 'launching', 'discipline', 'built', 'to']</t>
+  </si>
+  <si>
+    <t>['thaksin paralel', 'paralel vilar', 'vilar ran', 'ran govt', 'govt similar', 'similar duterte', 'duterte wants']</t>
+  </si>
+  <si>
+    <t>['thaksin paralel vilar', 'paralel vilar ran', 'vilar ran govt', 'ran govt similar', 'govt similar duterte', 'similar duterte wants']</t>
+  </si>
+  <si>
+    <t>['thaksin', 'paralel', 'vilar', 'ran', 'govt', 'similar', 'duterte', 'wants']</t>
+  </si>
+  <si>
+    <t>['paging duterte', 'duterte pakihuli', 'pakihuli microlord', 'microlord hahahahaha']</t>
+  </si>
+  <si>
+    <t>['paging duterte pakihuli', 'duterte pakihuli microlord', 'pakihuli microlord hahahahaha']</t>
+  </si>
+  <si>
+    <t>['paging', 'duterte', 'pakihuli', 'microlord', 'hahahahaha']</t>
+  </si>
+  <si>
+    <t>['who congrats', 'congrats presidentelect', 'presidentelect mayor', 'mayor duterte']</t>
+  </si>
+  <si>
+    <t>['who congrats presidentelect', 'congrats presidentelect mayor', 'presidentelect mayor duterte']</t>
+  </si>
+  <si>
+    <t>['who', 'congrats', 'presidentelect', 'mayor', 'duterte']</t>
+  </si>
+  <si>
+    <t>['dumalo thanksgiving', 'thanksgiving party', 'party presidentelect', 'presidentelect rodrigo', 'rodrigo duterte', 'duterte naglalakad', 'naglalakad pauwi', 'pauwi via']</t>
+  </si>
+  <si>
+    <t>['dumalo thanksgiving party', 'thanksgiving party presidentelect', 'party presidentelect rodrigo', 'presidentelect rodrigo duterte', 'rodrigo duterte naglalakad', 'duterte naglalakad pauwi', 'naglalakad pauwi via']</t>
+  </si>
+  <si>
+    <t>['dumalo', 'thanksgiving', 'party', 'presidentelect', 'rodrigo', 'duterte', 'naglalakad', 'pauwi', 'via']</t>
+  </si>
+  <si>
+    <t>['beter tel', 'tel truth', 'truth agre', 'agre truth', 'truth pres', 'pres du30']</t>
+  </si>
+  <si>
+    <t>['beter tel truth', 'tel truth agre', 'truth agre truth', 'agre truth pres', 'truth pres du30']</t>
+  </si>
+  <si>
+    <t>['beter', 'tel', 'truth', 'agre', 'truth', 'pres', 'du30']</t>
+  </si>
+  <si>
+    <t>['omg duterte', 'duterte puling', 'puling snape', 'snape everyone', 'everyone certainly', 'certainly blow', 'blow mind']</t>
+  </si>
+  <si>
+    <t>['omg duterte puling', 'duterte puling snape', 'puling snape everyone', 'snape everyone certainly', 'everyone certainly blow', 'certainly blow mind']</t>
+  </si>
+  <si>
+    <t>['omg', 'duterte', 'puling', 'snape', 'everyone', 'certainly', 'blow', 'mind']</t>
+  </si>
+  <si>
+    <t>['goverment owned', 'owned television', 'television people', 'people television', 'television ptv', 'ptv ready', 'ready exclusive', 'exclusive preselect', 'preselect duterte', 'duterte pres']</t>
+  </si>
+  <si>
+    <t>['goverment owned television', 'owned television people', 'television people television', 'people television ptv', 'television ptv ready', 'ptv ready exclusive', 'ready exclusive preselect', 'exclusive preselect duterte', 'preselect duterte pres']</t>
+  </si>
+  <si>
+    <t>['goverment', 'owned', 'television', 'people', 'television', 'ptv', 'ready', 'exclusive', 'preselect', 'duterte', 'pres']</t>
+  </si>
+  <si>
+    <t>['haha iwan', 'iwan dungan', 'dungan nko', 'nko murag', 'murag ktung', 'ktung giving', 'giving duterte', 'duterte bes']</t>
+  </si>
+  <si>
+    <t>['haha iwan dungan', 'iwan dungan nko', 'dungan nko murag', 'nko murag ktung', 'murag ktung giving', 'ktung giving duterte', 'giving duterte bes']</t>
+  </si>
+  <si>
+    <t>['haha', 'iwan', 'dungan', 'nko', 'murag', 'ktung', 'giving', 'duterte', 'bes']</t>
+  </si>
+  <si>
+    <t>['watch reynan', 'reynan sings', 'sings bayan', 'bayan duterte', 'duterte victory', 'victory party']</t>
+  </si>
+  <si>
+    <t>['watch reynan sings', 'reynan sings bayan', 'sings bayan duterte', 'bayan duterte victory', 'duterte victory party']</t>
+  </si>
+  <si>
+    <t>['watch', 'reynan', 'sings', 'bayan', 'duterte', 'victory', 'party']</t>
+  </si>
+  <si>
+    <t>['let beat', 'beat bush', 'bush let', 'let cal', 'cal spade', 'spade spade', 'spade president', 'president duterte', 'duterte embody', 'embody atitude']</t>
+  </si>
+  <si>
+    <t>['let beat bush', 'beat bush let', 'bush let cal', 'let cal spade', 'cal spade spade', 'spade spade president', 'spade president duterte', 'president duterte embody', 'duterte embody atitude']</t>
+  </si>
+  <si>
+    <t>['let', 'beat', 'bush', 'let', 'cal', 'spade', 'spade', 'president', 'duterte', 'embody', 'atitude']</t>
+  </si>
+  <si>
+    <t>['duterte suporters', 'suporters pres', 'pres con']</t>
+  </si>
+  <si>
+    <t>['duterte suporters pres', 'suporters pres con']</t>
+  </si>
+  <si>
+    <t>['duterte', 'suporters', 'pres', 'con']</t>
+  </si>
+  <si>
+    <t>['binoto duterte', 'duterte tapos', 'tapos ilan', 'ilan iboboycot', 'iboboycot siya', 'siya kalokohan']</t>
+  </si>
+  <si>
+    <t>['binoto duterte tapos', 'duterte tapos ilan', 'tapos ilan iboboycot', 'ilan iboboycot siya', 'iboboycot siya kalokohan']</t>
+  </si>
+  <si>
+    <t>['binoto', 'duterte', 'tapos', 'ilan', 'iboboycot', 'siya', 'kalokohan']</t>
+  </si>
+  <si>
+    <t>['watching giving', 'giving party', 'party pres', 'pres elect', 'elect rodrigo', 'rodrigo duterte', 'duterte 🤗']</t>
+  </si>
+  <si>
+    <t>['watching giving party', 'giving party pres', 'party pres elect', 'pres elect rodrigo', 'elect rodrigo duterte', 'rodrigo duterte 🤗']</t>
+  </si>
+  <si>
+    <t>['watching', 'giving', 'party', 'pres', 'elect', 'rodrigo', 'duterte', '🤗']</t>
+  </si>
+  <si>
+    <t>['honestly say', 'say single', 'single word', 'word hate', 'hate du30', 'du30 once', 'once change', 'change quality', 'quality education', 'education public', 'public schols', 'schols provide']</t>
+  </si>
+  <si>
+    <t>['honestly say single', 'say single word', 'single word hate', 'word hate du30', 'hate du30 once', 'du30 once change', 'once change quality', 'change quality education', 'quality education public', 'education public schols', 'public schols provide']</t>
+  </si>
+  <si>
+    <t>['honestly', 'say', 'single', 'word', 'hate', 'du30', 'once', 'change', 'quality', 'education', 'public', 'schols', 'provide']</t>
+  </si>
+  <si>
+    <t>['duterte vows', 'vows setle', 'setle south', 'south china', 'china sea', 'sea dispute']</t>
+  </si>
+  <si>
+    <t>['duterte vows setle', 'vows setle south', 'setle south china', 'south china sea', 'china sea dispute']</t>
+  </si>
+  <si>
+    <t>['duterte', 'vows', 'setle', 'south', 'china', 'sea', 'dispute']</t>
+  </si>
+  <si>
+    <t>['wtf ramdam', 'ramdam duterte', 'duterte ahahaha']</t>
+  </si>
+  <si>
+    <t>['wtf ramdam duterte', 'ramdam duterte ahahaha']</t>
+  </si>
+  <si>
+    <t>['wtf', 'ramdam', 'duterte', 'ahahaha']</t>
+  </si>
+  <si>
+    <t>['realized hard', 'hard people', 'people mar', 'mar roxas', 'roxas candidates', 'candidates past', 'past election', 'election they', 'they hating', 'hating du30', 'du30 because', 'because words', 'words —']</t>
+  </si>
+  <si>
+    <t>['realized hard people', 'hard people mar', 'people mar roxas', 'mar roxas candidates', 'roxas candidates past', 'candidates past election', 'past election they', 'election they hating', 'they hating du30', 'hating du30 because', 'du30 because words', 'because words —']</t>
+  </si>
+  <si>
+    <t>['realized', 'hard', 'people', 'mar', 'roxas', 'candidates', 'past', 'election', 'they', 'hating', 'du30', 'because', 'words', '—']</t>
+  </si>
+  <si>
+    <t>['duterte napatino', 'napatino ‘anak’', '‘anak’ fredie']</t>
+  </si>
+  <si>
+    <t>['duterte napatino ‘anak’', 'napatino ‘anak’ fredie']</t>
+  </si>
+  <si>
+    <t>['duterte', 'napatino', '‘anak’', 'fredie']</t>
+  </si>
+  <si>
+    <t>['du30 silent', 'silent smalscale', 'smalscale chinese', 'chinese mining', 'mining companies', 'companies siphoning', 'siphoning gold', 'gold reserves', 'reserves surigao', 'surigao diwalwal']</t>
+  </si>
+  <si>
+    <t>['du30 silent smalscale', 'silent smalscale chinese', 'smalscale chinese mining', 'chinese mining companies', 'mining companies siphoning', 'companies siphoning gold', 'siphoning gold reserves', 'gold reserves surigao', 'reserves surigao diwalwal']</t>
+  </si>
+  <si>
+    <t>['du30', 'silent', 'smalscale', 'chinese', 'mining', 'companies', 'siphoning', 'gold', 'reserves', 'surigao', 'diwalwal']</t>
+  </si>
+  <si>
+    <t>['real change', 'change coming', 'coming duterte', 'duterte rudely', 'rudely speaks', 'speaks saying', 'saying truth', 'truth push', 'push president']</t>
+  </si>
+  <si>
+    <t>['real change coming', 'change coming duterte', 'coming duterte rudely', 'duterte rudely speaks', 'rudely speaks saying', 'speaks saying truth', 'saying truth push', 'truth push president']</t>
+  </si>
+  <si>
+    <t>['real', 'change', 'coming', 'duterte', 'rudely', 'speaks', 'saying', 'truth', 'push', 'president']</t>
+  </si>
+  <si>
+    <t>['surprised thaksin', 'thaksin promised', 'promised clear', 'clear thailand', 'thailand drugs', 'drugs months', 'months similar', 'similar duterte', 'duterte promises']</t>
+  </si>
+  <si>
+    <t>['surprised thaksin promised', 'thaksin promised clear', 'promised clear thailand', 'clear thailand drugs', 'thailand drugs months', 'drugs months similar', 'months similar duterte', 'similar duterte promises']</t>
+  </si>
+  <si>
+    <t>['surprised', 'thaksin', 'promised', 'clear', 'thailand', 'drugs', 'months', 'similar', 'duterte', 'promises']</t>
+  </si>
+  <si>
+    <t>['anyone breaks', 'breaks law', 'law crime', 'crime duterte', 'duterte fredom', 'fredom eresion', 'eresion genius', 'genius level']</t>
+  </si>
+  <si>
+    <t>['anyone breaks law', 'breaks law crime', 'law crime duterte', 'crime duterte fredom', 'duterte fredom eresion', 'fredom eresion genius', 'eresion genius level']</t>
+  </si>
+  <si>
+    <t>['anyone', 'breaks', 'law', 'crime', 'duterte', 'fredom', 'eresion', 'genius', 'level']</t>
+  </si>
+  <si>
+    <t>['pero pano', 'pano kaya', 'kaya katorse', 'katorse anyos', 'anyos dalagitang', 'dalagitang anak', 'anak dutertecatcal', 'dutertecatcal hm']</t>
+  </si>
+  <si>
+    <t>['pero pano kaya', 'pano kaya katorse', 'kaya katorse anyos', 'katorse anyos dalagitang', 'anyos dalagitang anak', 'dalagitang anak dutertecatcal', 'anak dutertecatcal hm']</t>
+  </si>
+  <si>
+    <t>['pero', 'pano', 'kaya', 'katorse', 'anyos', 'dalagitang', 'anak', 'dutertecatcal', 'hm']</t>
+  </si>
+  <si>
+    <t>['matapos ideklara', 'ideklara preselect', 'preselect duterte', 'duterte ilalabas', 'ilalabas pahayag', 'pahayag pres', 'pres conference', 'conference magagaling']</t>
+  </si>
+  <si>
+    <t>['matapos ideklara preselect', 'ideklara preselect duterte', 'preselect duterte ilalabas', 'duterte ilalabas pahayag', 'ilalabas pahayag pres', 'pahayag pres conference', 'pres conference magagaling']</t>
+  </si>
+  <si>
+    <t>['matapos', 'ideklara', 'preselect', 'duterte', 'ilalabas', 'pahayag', 'pres', 'conference', 'magagaling']</t>
+  </si>
+  <si>
+    <t>['crackdown antiduterte', 'antiduterte acounts', 'acounts facebok']</t>
+  </si>
+  <si>
+    <t>['crackdown antiduterte acounts', 'antiduterte acounts facebok']</t>
+  </si>
+  <si>
+    <t>['crackdown', 'antiduterte', 'acounts', 'facebok']</t>
   </si>
 </sst>
 </file>
@@ -772,1080 +1237,1080 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="C49" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>153</v>
       </c>
       <c r="C53" t="s">
-        <v>70</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>155</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="C54" t="s">
-        <v>4</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="C55" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="C57" t="s">
-        <v>72</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>165</v>
       </c>
       <c r="C58" t="s">
-        <v>4</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>167</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>168</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>171</v>
       </c>
       <c r="C60" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="C61" t="s">
-        <v>77</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>177</v>
       </c>
       <c r="C62" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="C63" t="s">
-        <v>82</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="C64" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>186</v>
       </c>
       <c r="C65" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>188</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>189</v>
       </c>
       <c r="C67" t="s">
-        <v>87</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>191</v>
       </c>
       <c r="B68" t="s">
-        <v>89</v>
+        <v>192</v>
       </c>
       <c r="C68" t="s">
-        <v>90</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>195</v>
       </c>
       <c r="C69" t="s">
-        <v>4</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>197</v>
       </c>
       <c r="B70" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="C70" t="s">
-        <v>93</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="C71" t="s">
-        <v>95</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="C72" t="s">
-        <v>4</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="B73" t="s">
-        <v>4</v>
+        <v>207</v>
       </c>
       <c r="C73" t="s">
-        <v>4</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>209</v>
       </c>
       <c r="B74" t="s">
-        <v>4</v>
+        <v>210</v>
       </c>
       <c r="C74" t="s">
-        <v>4</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>212</v>
       </c>
       <c r="B75" t="s">
-        <v>4</v>
+        <v>213</v>
       </c>
       <c r="C75" t="s">
-        <v>4</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>96</v>
+        <v>215</v>
       </c>
       <c r="B76" t="s">
-        <v>4</v>
+        <v>216</v>
       </c>
       <c r="C76" t="s">
-        <v>97</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>4</v>
+        <v>218</v>
       </c>
       <c r="B77" t="s">
-        <v>4</v>
+        <v>219</v>
       </c>
       <c r="C77" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>4</v>
+        <v>221</v>
       </c>
       <c r="B78" t="s">
-        <v>4</v>
+        <v>222</v>
       </c>
       <c r="C78" t="s">
-        <v>98</v>
+        <v>223</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="B79" t="s">
-        <v>4</v>
+        <v>225</v>
       </c>
       <c r="C79" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>4</v>
+        <v>227</v>
       </c>
       <c r="B80" t="s">
-        <v>4</v>
+        <v>228</v>
       </c>
       <c r="C80" t="s">
-        <v>101</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>230</v>
       </c>
       <c r="B81" t="s">
-        <v>4</v>
+        <v>231</v>
       </c>
       <c r="C81" t="s">
-        <v>103</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
       <c r="B82" t="s">
-        <v>4</v>
+        <v>234</v>
       </c>
       <c r="C82" t="s">
-        <v>4</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>96</v>
+        <v>215</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
+        <v>216</v>
       </c>
       <c r="C84" t="s">
-        <v>97</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="B85" t="s">
-        <v>4</v>
+        <v>237</v>
       </c>
       <c r="C85" t="s">
-        <v>4</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="B86" t="s">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="C86" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="B87" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="C87" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>4</v>
+        <v>242</v>
       </c>
       <c r="B88" t="s">
-        <v>4</v>
+        <v>243</v>
       </c>
       <c r="C88" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>107</v>
+        <v>245</v>
       </c>
       <c r="B89" t="s">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="C89" t="s">
-        <v>108</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="B90" t="s">
-        <v>4</v>
+        <v>249</v>
       </c>
       <c r="C90" t="s">
-        <v>109</v>
+        <v>250</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="B91" t="s">
-        <v>4</v>
+        <v>252</v>
       </c>
       <c r="C91" t="s">
-        <v>4</v>
+        <v>253</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c r="B92" t="s">
-        <v>111</v>
+        <v>255</v>
       </c>
       <c r="C92" t="s">
-        <v>112</v>
+        <v>256</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="B93" t="s">
-        <v>4</v>
+        <v>258</v>
       </c>
       <c r="C93" t="s">
-        <v>113</v>
+        <v>259</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>114</v>
+        <v>260</v>
       </c>
       <c r="B94" t="s">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="C94" t="s">
-        <v>115</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>4</v>
+        <v>263</v>
       </c>
       <c r="B95" t="s">
-        <v>4</v>
+        <v>264</v>
       </c>
       <c r="C95" t="s">
-        <v>4</v>
+        <v>265</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>116</v>
+        <v>266</v>
       </c>
       <c r="B96" t="s">
-        <v>117</v>
+        <v>267</v>
       </c>
       <c r="C96" t="s">
-        <v>118</v>
+        <v>268</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>119</v>
+        <v>269</v>
       </c>
       <c r="B97" t="s">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="C97" t="s">
-        <v>121</v>
+        <v>271</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>122</v>
+        <v>272</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
+        <v>273</v>
       </c>
       <c r="C98" t="s">
-        <v>123</v>
+        <v>274</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>124</v>
+        <v>275</v>
       </c>
       <c r="B99" t="s">
-        <v>4</v>
+        <v>276</v>
       </c>
       <c r="C99" t="s">
-        <v>125</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>4</v>
+        <v>278</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
+        <v>279</v>
       </c>
       <c r="C100" t="s">
-        <v>4</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
